--- a/lira/nodes.xlsx
+++ b/lira/nodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Документы\Python Scripts\NDM_python\lira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C0B4CF-9B01-49D6-873D-A6EFD0F24C88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D83C71-6AD3-4595-B921-5CEDBF75A35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="1245" windowWidth="27570" windowHeight="14355"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
   <si>
     <t>Таблица узлов</t>
   </si>
@@ -64,10 +64,10 @@
     <t>UZ</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" showOutlineSymbols="0" workbookViewId="0"/>
   </sheetViews>
@@ -683,13 +683,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>3.7</v>
+        <v>76.25</v>
       </c>
       <c r="C4" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -715,48 +715,48 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>34.25</v>
+        <v>76.25</v>
       </c>
       <c r="C5" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
-        <v>34.25</v>
+        <v>27.700001</v>
       </c>
       <c r="C6" s="1">
-        <v>35</v>
+        <v>22.85</v>
       </c>
       <c r="D6" s="1">
-        <v>-2.4</v>
+        <v>4.2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -779,16 +779,16 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>404</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
-        <v>3.7</v>
+        <v>27.700001</v>
       </c>
       <c r="C7" s="1">
-        <v>11</v>
+        <v>22.85</v>
       </c>
       <c r="D7" s="1">
-        <v>-6.4</v>
+        <v>11.75</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -811,48 +811,48 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>474</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
-        <v>12.6</v>
+        <v>27.700001</v>
       </c>
       <c r="C8" s="1">
-        <v>11.57</v>
+        <v>22.85</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>475</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1">
-        <v>12.6</v>
+        <v>27.700001</v>
       </c>
       <c r="C9" s="1">
-        <v>11.57</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -875,13 +875,13 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>532</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1">
-        <v>64.550003000000004</v>
+        <v>21.700001</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.05</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -907,97 +907,161 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>533</v>
+        <v>190</v>
       </c>
       <c r="B11" s="1">
-        <v>64.550003000000004</v>
+        <v>34.25</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.05</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
-        <v>10.6</v>
+        <v>8.4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>2491</v>
+        <v>222</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>34.25</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>4.2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>3029</v>
+        <v>278</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>34.25</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>384</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21.700001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>386</v>
+      </c>
+      <c r="B15" s="1">
+        <v>27.700001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
